--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.69276406036458</v>
+        <v>6.406955</v>
       </c>
       <c r="H2">
-        <v>5.69276406036458</v>
+        <v>19.220865</v>
       </c>
       <c r="I2">
-        <v>0.3068499321362265</v>
+        <v>0.2800966009992834</v>
       </c>
       <c r="J2">
-        <v>0.3068499321362265</v>
+        <v>0.3266544289500553</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.0711453992741</v>
+        <v>3.470843666666667</v>
       </c>
       <c r="N2">
-        <v>3.0711453992741</v>
+        <v>10.412531</v>
       </c>
       <c r="O2">
-        <v>0.05247119903400454</v>
+        <v>0.05653984104486641</v>
       </c>
       <c r="P2">
-        <v>0.05247119903400454</v>
+        <v>0.0651263661336549</v>
       </c>
       <c r="Q2">
-        <v>17.48330615314163</v>
+        <v>22.23753918436834</v>
       </c>
       <c r="R2">
-        <v>17.48330615314163</v>
+        <v>200.137852659315</v>
       </c>
       <c r="S2">
-        <v>0.01610078386269073</v>
+        <v>0.01583661729770685</v>
       </c>
       <c r="T2">
-        <v>0.01610078386269073</v>
+        <v>0.02127381593898126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.69276406036458</v>
+        <v>6.406955</v>
       </c>
       <c r="H3">
-        <v>5.69276406036458</v>
+        <v>19.220865</v>
       </c>
       <c r="I3">
-        <v>0.3068499321362265</v>
+        <v>0.2800966009992834</v>
       </c>
       <c r="J3">
-        <v>0.3068499321362265</v>
+        <v>0.3266544289500553</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.4857968873752</v>
+        <v>32.24261766666667</v>
       </c>
       <c r="N3">
-        <v>30.4857968873752</v>
+        <v>96.72785300000001</v>
       </c>
       <c r="O3">
-        <v>0.5208565887391037</v>
+        <v>0.5252303626496961</v>
       </c>
       <c r="P3">
-        <v>0.5208565887391037</v>
+        <v>0.6049954204026234</v>
       </c>
       <c r="Q3">
-        <v>173.5484488720239</v>
+        <v>206.5770004725383</v>
       </c>
       <c r="R3">
-        <v>173.5484488720239</v>
+        <v>1859.193004252845</v>
       </c>
       <c r="S3">
-        <v>0.1598248089073004</v>
+        <v>0.1471152393198009</v>
       </c>
       <c r="T3">
-        <v>0.1598248089073004</v>
+        <v>0.1976244335690176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.69276406036458</v>
+        <v>6.406955</v>
       </c>
       <c r="H4">
-        <v>5.69276406036458</v>
+        <v>19.220865</v>
       </c>
       <c r="I4">
-        <v>0.3068499321362265</v>
+        <v>0.2800966009992834</v>
       </c>
       <c r="J4">
-        <v>0.3068499321362265</v>
+        <v>0.3266544289500553</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9240875172576321</v>
+        <v>0.9959919999999999</v>
       </c>
       <c r="N4">
-        <v>0.9240875172576321</v>
+        <v>2.987976</v>
       </c>
       <c r="O4">
-        <v>0.01578823980601016</v>
+        <v>0.01622465163233374</v>
       </c>
       <c r="P4">
-        <v>0.01578823980601016</v>
+        <v>0.01868863765923708</v>
       </c>
       <c r="Q4">
-        <v>5.260612206875781</v>
+        <v>6.381275924359999</v>
       </c>
       <c r="R4">
-        <v>5.260612206875781</v>
+        <v>57.43148331923999</v>
       </c>
       <c r="S4">
-        <v>0.004844620313024688</v>
+        <v>0.004544469774614157</v>
       </c>
       <c r="T4">
-        <v>0.004844620313024688</v>
+        <v>0.006104726262432587</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.69276406036458</v>
+        <v>6.406955</v>
       </c>
       <c r="H5">
-        <v>5.69276406036458</v>
+        <v>19.220865</v>
       </c>
       <c r="I5">
-        <v>0.3068499321362265</v>
+        <v>0.2800966009992834</v>
       </c>
       <c r="J5">
-        <v>0.3068499321362265</v>
+        <v>0.3266544289500553</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>24.0490868279583</v>
+        <v>0.3973579999999999</v>
       </c>
       <c r="N5">
-        <v>24.0490868279583</v>
+        <v>1.192074</v>
       </c>
       <c r="O5">
-        <v>0.4108839724208816</v>
+        <v>0.006472938661476068</v>
       </c>
       <c r="P5">
-        <v>0.4108839724208816</v>
+        <v>0.00745596318343835</v>
       </c>
       <c r="Q5">
-        <v>136.9057771787882</v>
+        <v>2.54585482489</v>
       </c>
       <c r="R5">
-        <v>136.9057771787882</v>
+        <v>22.91269342401</v>
       </c>
       <c r="S5">
-        <v>0.1260797190532107</v>
+        <v>0.001813048117556298</v>
       </c>
       <c r="T5">
-        <v>0.1260797190532107</v>
+        <v>0.002435523395958691</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.67098801247928</v>
+        <v>6.406955</v>
       </c>
       <c r="H6">
-        <v>6.67098801247928</v>
+        <v>19.220865</v>
       </c>
       <c r="I6">
-        <v>0.3595779128038819</v>
+        <v>0.2800966009992834</v>
       </c>
       <c r="J6">
-        <v>0.3595779128038819</v>
+        <v>0.3266544289500553</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.0711453992741</v>
+        <v>24.2807625</v>
       </c>
       <c r="N6">
-        <v>3.0711453992741</v>
+        <v>48.561525</v>
       </c>
       <c r="O6">
-        <v>0.05247119903400454</v>
+        <v>0.3955322060116276</v>
       </c>
       <c r="P6">
-        <v>0.05247119903400454</v>
+        <v>0.3037336126210463</v>
       </c>
       <c r="Q6">
-        <v>20.48757414313841</v>
+        <v>155.5657527031875</v>
       </c>
       <c r="R6">
-        <v>20.48757414313841</v>
+        <v>933.3945162191251</v>
       </c>
       <c r="S6">
-        <v>0.01886748423096442</v>
+        <v>0.1107872264896052</v>
       </c>
       <c r="T6">
-        <v>0.01886748423096442</v>
+        <v>0.09921592978366518</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,55 +841,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.67098801247928</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H7">
-        <v>6.67098801247928</v>
+        <v>20.059353</v>
       </c>
       <c r="I7">
-        <v>0.3595779128038819</v>
+        <v>0.2923154911886005</v>
       </c>
       <c r="J7">
-        <v>0.3595779128038819</v>
+        <v>0.3409043505233807</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.4857968873752</v>
+        <v>3.470843666666667</v>
       </c>
       <c r="N7">
-        <v>30.4857968873752</v>
+        <v>10.412531</v>
       </c>
       <c r="O7">
-        <v>0.5208565887391037</v>
+        <v>0.05653984104486641</v>
       </c>
       <c r="P7">
-        <v>0.5208565887391037</v>
+        <v>0.0651263661336549</v>
       </c>
       <c r="Q7">
-        <v>203.3703855865581</v>
+        <v>23.20762610582701</v>
       </c>
       <c r="R7">
-        <v>203.3703855865581</v>
+        <v>208.868634952443</v>
       </c>
       <c r="S7">
-        <v>0.1872885250489568</v>
+        <v>0.01652747140675552</v>
       </c>
       <c r="T7">
-        <v>0.1872885250489568</v>
+        <v>0.02220186154874152</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +903,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.67098801247928</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H8">
-        <v>6.67098801247928</v>
+        <v>20.059353</v>
       </c>
       <c r="I8">
-        <v>0.3595779128038819</v>
+        <v>0.2923154911886005</v>
       </c>
       <c r="J8">
-        <v>0.3595779128038819</v>
+        <v>0.3409043505233807</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9240875172576321</v>
+        <v>32.24261766666667</v>
       </c>
       <c r="N8">
-        <v>0.9240875172576321</v>
+        <v>96.72785300000001</v>
       </c>
       <c r="O8">
-        <v>0.01578823980601016</v>
+        <v>0.5252303626496961</v>
       </c>
       <c r="P8">
-        <v>0.01578823980601016</v>
+        <v>0.6049954204026234</v>
       </c>
       <c r="Q8">
-        <v>6.164576750107403</v>
+        <v>215.588683139901</v>
       </c>
       <c r="R8">
-        <v>6.164576750107403</v>
+        <v>1940.298148259109</v>
       </c>
       <c r="S8">
-        <v>0.005677102316292299</v>
+        <v>0.1535329714451127</v>
       </c>
       <c r="T8">
-        <v>0.005677102316292299</v>
+        <v>0.206245570861976</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.67098801247928</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H9">
-        <v>6.67098801247928</v>
+        <v>20.059353</v>
       </c>
       <c r="I9">
-        <v>0.3595779128038819</v>
+        <v>0.2923154911886005</v>
       </c>
       <c r="J9">
-        <v>0.3595779128038819</v>
+        <v>0.3409043505233807</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>24.0490868279583</v>
+        <v>0.9959919999999999</v>
       </c>
       <c r="N9">
-        <v>24.0490868279583</v>
+        <v>2.987976</v>
       </c>
       <c r="O9">
-        <v>0.4108839724208816</v>
+        <v>0.01622465163233374</v>
       </c>
       <c r="P9">
-        <v>0.4108839724208816</v>
+        <v>0.01868863765923708</v>
       </c>
       <c r="Q9">
-        <v>160.4311699403832</v>
+        <v>6.659651704392</v>
       </c>
       <c r="R9">
-        <v>160.4311699403832</v>
+        <v>59.936865339528</v>
       </c>
       <c r="S9">
-        <v>0.1477448012076684</v>
+        <v>0.004742717011269567</v>
       </c>
       <c r="T9">
-        <v>0.1477448012076684</v>
+        <v>0.006371037883389012</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,60 +1027,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.18852206563393</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H10">
-        <v>6.18852206563393</v>
+        <v>20.059353</v>
       </c>
       <c r="I10">
-        <v>0.3335721550598916</v>
+        <v>0.2923154911886005</v>
       </c>
       <c r="J10">
-        <v>0.3335721550598916</v>
+        <v>0.3409043505233807</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.0711453992741</v>
+        <v>0.3973579999999999</v>
       </c>
       <c r="N10">
-        <v>3.0711453992741</v>
+        <v>1.192074</v>
       </c>
       <c r="O10">
-        <v>0.05247119903400454</v>
+        <v>0.006472938661476068</v>
       </c>
       <c r="P10">
-        <v>0.05247119903400454</v>
+        <v>0.00745596318343835</v>
       </c>
       <c r="Q10">
-        <v>19.00585107017789</v>
+        <v>2.656914796458</v>
       </c>
       <c r="R10">
-        <v>19.00585107017789</v>
+        <v>23.912233168122</v>
       </c>
       <c r="S10">
-        <v>0.0175029309403494</v>
+        <v>0.001892140244263059</v>
       </c>
       <c r="T10">
-        <v>0.0175029309403494</v>
+        <v>0.002541770286576289</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,55 +1089,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.18852206563393</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H11">
-        <v>6.18852206563393</v>
+        <v>20.059353</v>
       </c>
       <c r="I11">
-        <v>0.3335721550598916</v>
+        <v>0.2923154911886005</v>
       </c>
       <c r="J11">
-        <v>0.3335721550598916</v>
+        <v>0.3409043505233807</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.4857968873752</v>
+        <v>24.2807625</v>
       </c>
       <c r="N11">
-        <v>30.4857968873752</v>
+        <v>48.561525</v>
       </c>
       <c r="O11">
-        <v>0.5208565887391037</v>
+        <v>0.3955322060116276</v>
       </c>
       <c r="P11">
-        <v>0.5208565887391037</v>
+        <v>0.3037336126210463</v>
       </c>
       <c r="Q11">
-        <v>188.6620267259556</v>
+        <v>162.3521286988875</v>
       </c>
       <c r="R11">
-        <v>188.6620267259556</v>
+        <v>974.1127721933251</v>
       </c>
       <c r="S11">
-        <v>0.1737432547828465</v>
+        <v>0.1156201910811997</v>
       </c>
       <c r="T11">
-        <v>0.1737432547828465</v>
+        <v>0.1035441099426979</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,55 +1151,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.18852206563393</v>
+        <v>9.780684500000001</v>
       </c>
       <c r="H12">
-        <v>6.18852206563393</v>
+        <v>19.561369</v>
       </c>
       <c r="I12">
-        <v>0.3335721550598916</v>
+        <v>0.4275879078121161</v>
       </c>
       <c r="J12">
-        <v>0.3335721550598916</v>
+        <v>0.332441220526564</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9240875172576321</v>
+        <v>3.470843666666667</v>
       </c>
       <c r="N12">
-        <v>0.9240875172576321</v>
+        <v>10.412531</v>
       </c>
       <c r="O12">
-        <v>0.01578823980601016</v>
+        <v>0.05653984104486641</v>
       </c>
       <c r="P12">
-        <v>0.01578823980601016</v>
+        <v>0.0651263661336549</v>
       </c>
       <c r="Q12">
-        <v>5.718735991125731</v>
+        <v>33.94722685248984</v>
       </c>
       <c r="R12">
-        <v>5.718735991125731</v>
+        <v>203.6833611149391</v>
       </c>
       <c r="S12">
-        <v>0.005266517176693174</v>
+        <v>0.02417575234040404</v>
       </c>
       <c r="T12">
-        <v>0.005266517176693174</v>
+        <v>0.02165068864593212</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,55 +1213,241 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9.780684500000001</v>
+      </c>
+      <c r="H13">
+        <v>19.561369</v>
+      </c>
+      <c r="I13">
+        <v>0.4275879078121161</v>
+      </c>
+      <c r="J13">
+        <v>0.332441220526564</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>32.24261766666667</v>
+      </c>
+      <c r="N13">
+        <v>96.72785300000001</v>
+      </c>
+      <c r="O13">
+        <v>0.5252303626496961</v>
+      </c>
+      <c r="P13">
+        <v>0.6049954204026234</v>
+      </c>
+      <c r="Q13">
+        <v>315.3548708517929</v>
+      </c>
+      <c r="R13">
+        <v>1892.129225110757</v>
+      </c>
+      <c r="S13">
+        <v>0.2245821518847826</v>
+      </c>
+      <c r="T13">
+        <v>0.2011254159716298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>6.18852206563393</v>
-      </c>
-      <c r="H13">
-        <v>6.18852206563393</v>
-      </c>
-      <c r="I13">
-        <v>0.3335721550598916</v>
-      </c>
-      <c r="J13">
-        <v>0.3335721550598916</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>24.0490868279583</v>
-      </c>
-      <c r="N13">
-        <v>24.0490868279583</v>
-      </c>
-      <c r="O13">
-        <v>0.4108839724208816</v>
-      </c>
-      <c r="P13">
-        <v>0.4108839724208816</v>
-      </c>
-      <c r="Q13">
-        <v>148.8283044931662</v>
-      </c>
-      <c r="R13">
-        <v>148.8283044931662</v>
-      </c>
-      <c r="S13">
-        <v>0.1370594521600025</v>
-      </c>
-      <c r="T13">
-        <v>0.1370594521600025</v>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>9.780684500000001</v>
+      </c>
+      <c r="H14">
+        <v>19.561369</v>
+      </c>
+      <c r="I14">
+        <v>0.4275879078121161</v>
+      </c>
+      <c r="J14">
+        <v>0.332441220526564</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9959919999999999</v>
+      </c>
+      <c r="N14">
+        <v>2.987976</v>
+      </c>
+      <c r="O14">
+        <v>0.01622465163233374</v>
+      </c>
+      <c r="P14">
+        <v>0.01868863765923708</v>
+      </c>
+      <c r="Q14">
+        <v>9.741483516524001</v>
+      </c>
+      <c r="R14">
+        <v>58.448901099144</v>
+      </c>
+      <c r="S14">
+        <v>0.006937464846450019</v>
+      </c>
+      <c r="T14">
+        <v>0.006212873513415484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>9.780684500000001</v>
+      </c>
+      <c r="H15">
+        <v>19.561369</v>
+      </c>
+      <c r="I15">
+        <v>0.4275879078121161</v>
+      </c>
+      <c r="J15">
+        <v>0.332441220526564</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.3973579999999999</v>
+      </c>
+      <c r="N15">
+        <v>1.192074</v>
+      </c>
+      <c r="O15">
+        <v>0.006472938661476068</v>
+      </c>
+      <c r="P15">
+        <v>0.00745596318343835</v>
+      </c>
+      <c r="Q15">
+        <v>3.886433231551</v>
+      </c>
+      <c r="R15">
+        <v>23.318599389306</v>
+      </c>
+      <c r="S15">
+        <v>0.002767750299656711</v>
+      </c>
+      <c r="T15">
+        <v>0.002478669500903371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>9.780684500000001</v>
+      </c>
+      <c r="H16">
+        <v>19.561369</v>
+      </c>
+      <c r="I16">
+        <v>0.4275879078121161</v>
+      </c>
+      <c r="J16">
+        <v>0.332441220526564</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>24.2807625</v>
+      </c>
+      <c r="N16">
+        <v>48.561525</v>
+      </c>
+      <c r="O16">
+        <v>0.3955322060116276</v>
+      </c>
+      <c r="P16">
+        <v>0.3037336126210463</v>
+      </c>
+      <c r="Q16">
+        <v>237.4824774319313</v>
+      </c>
+      <c r="R16">
+        <v>949.9299097277252</v>
+      </c>
+      <c r="S16">
+        <v>0.1691247884408227</v>
+      </c>
+      <c r="T16">
+        <v>0.1009735728946832</v>
       </c>
     </row>
   </sheetData>
